--- a/element_infos_datas/element_infos_r.xlsx
+++ b/element_infos_datas/element_infos_r.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\PO_UI_Zentao\element_infos_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B61E14-6BAA-40A7-ACD5-9ADC64E5CCD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C928873-E029-4940-8514-71D4F96E18A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10836" yWindow="4980" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
+    <sheet name="createbug_page" sheetId="2" r:id="rId2"/>
+    <sheet name="testmenu_page" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>元素名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +87,180 @@
   </si>
   <si>
     <t>//button[@id="submit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素变量名</t>
+  </si>
+  <si>
+    <t>元素名称</t>
+  </si>
+  <si>
+    <t>所属页面</t>
+  </si>
+  <si>
+    <t>定位方式</t>
+  </si>
+  <si>
+    <t>定位值</t>
+  </si>
+  <si>
+    <t>超时时间</t>
+  </si>
+  <si>
+    <r>
+      <t>BUG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+  </si>
+  <si>
+    <t>Testbug_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="bug"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createbug_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createbug_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提BUG按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[contains(@href,"moduleID")]</t>
+  </si>
+  <si>
+    <t>unclosedbug_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>未关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BUG</t>
+    </r>
+  </si>
+  <si>
+    <t>//a[contains(@href,"unclosed.html")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bugtitle_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG标题输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="title"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bugdescribe_frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG描述iframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//iframe[@class="ke-edit-iframe"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bugdescribe_inputbox</t>
+  </si>
+  <si>
+    <r>
+      <t>BUG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述输入框</t>
+    </r>
+  </si>
+  <si>
+    <t>//body[@class="article-content"]</t>
+  </si>
+  <si>
+    <t>submit_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@id="submit"]</t>
+  </si>
+  <si>
+    <t>version_chosen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="openedBuild_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@title="主干"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响版本选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug_module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +295,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,17 +319,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,20 +632,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -449,33 +654,39 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -483,29 +694,35 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
@@ -514,4 +731,274 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA8CC17-7D07-4331-91BF-A1309E127F92}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FBB96-B076-4A43-807C-2BB6C5667D27}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/element_infos_datas/element_infos_r.xlsx
+++ b/element_infos_datas/element_infos_r.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\PO_UI_Zentao\element_infos_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C928873-E029-4940-8514-71D4F96E18A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1412601A-3F08-4BFF-9692-C0FF65552315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
     <sheet name="createbug_page" sheetId="2" r:id="rId2"/>
     <sheet name="testmenu_page" sheetId="3" r:id="rId3"/>
+    <sheet name="main" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>元素名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +262,102 @@
   </si>
   <si>
     <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myzone_link</t>
+  </si>
+  <si>
+    <t>我的地盘链接</t>
+  </si>
+  <si>
+    <t>main_page</t>
+  </si>
+  <si>
+    <t>//a[@text='我的地盘']</t>
+  </si>
+  <si>
+    <t>user_menu</t>
+  </si>
+  <si>
+    <t>用户菜单</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>userNav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quit_button</t>
+  </si>
+  <si>
+    <t>退出按钮</t>
+  </si>
+  <si>
+    <t>//a[@href='/zentao/www/index.php?m=user&amp;f=logout']</t>
+  </si>
+  <si>
+    <t>companyname_showbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//h1[@id="companyname"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myzone_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="my"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="product"]</t>
+  </si>
+  <si>
+    <t>test_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="qa"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username_showspan</t>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class="user-name"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1001,4 +1098,209 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75827F8D-4648-4470-956E-2DB0E4E494E2}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>